--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1938.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1938.xlsx
@@ -351,10 +351,10 @@
         <v>1.298160595523262</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.631295306085333</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1938.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1938.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.298160595523262</v>
+        <v>0.372367262840271</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>0.261387437582016</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>0.4040209054946899</v>
       </c>
       <c r="D1">
-        <v>1.631295306085333</v>
+        <v>4.334035396575928</v>
       </c>
       <c r="E1">
-        <v>1.121948948378801</v>
+        <v>2.333630323410034</v>
       </c>
     </row>
   </sheetData>
